--- a/nifi/application/config/xlsx_config/VO_IT_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_IT_CONFIG.xlsx
@@ -207,7 +207,54 @@
     <t xml:space="preserve">expect_column_values_to_be_in_set_2</t>
   </si>
   <si>
-    <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',’particuliers’], 'mostly' : 0.95}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{'value_set' : ['pro','private','dealer','professional',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">particuliers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">], 'mostly' : 0.95}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">VILLE</t>
@@ -285,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -328,6 +375,12 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -458,7 +511,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1153,7 +1206,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
